--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/RemoveFromAnalysis.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/RemoveFromAnalysis.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/suis3/script_dependents/python/script2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\bi\salmonella\vsnp\heidelberg-SL476\script_dependents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,11 +14,8 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>18-006979-250_zc</t>
+  </si>
+  <si>
+    <t>S17-15421_zc</t>
+  </si>
+  <si>
+    <t>18-006979-175_zc</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,6 +79,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -340,15 +350,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/RemoveFromAnalysis.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/RemoveFromAnalysis.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\bi\salmonella\vsnp\heidelberg-SL476\script_dependents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975EA774-155D-E744-AD70-D8239491BD36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65640" yWindow="9960" windowWidth="22260" windowHeight="16920" tabRatio="500"/>
+    <workbookView xWindow="61840" yWindow="9800" windowWidth="22260" windowHeight="16920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>18-006979-250_zc</t>
   </si>
@@ -34,18 +35,30 @@
   <si>
     <t>18-006979-175_zc</t>
   </si>
+  <si>
+    <t>18-006979-270_zc</t>
+  </si>
+  <si>
+    <t>17-001432-022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,8 +81,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,31 +368,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
